--- a/feather/复习表.xlsx
+++ b/feather/复习表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>30min</t>
   </si>
@@ -51,17 +51,52 @@
   <si>
     <t>ViewPager</t>
   </si>
+  <si>
+    <t>WebView</t>
+  </si>
+  <si>
+    <t>1. chrome浏览器
+2. AJ
+3. 爱一对大象(自主映射)
+4. 姐，爱，返回
+5. 网包裹硬件
+6. 网泄露小虫子</t>
+  </si>
+  <si>
+    <t>ListView\RecyclerView</t>
+  </si>
+  <si>
+    <t>1. 两个梨(垃圾箱上)
+2. 两个梨，流水线上，树
+3. 垃圾箱的画，做帆船的船帆
+4. 垃圾箱的画，靠着树
+5. 共享游泳池
+6. 垃圾箱的画，流水线
+7. 垃圾箱，望远镜，看插座
+8. 定向跳远，帮助者
+9. 菊部，支付宝
+10. 垃圾箱，拖拽，滑动</t>
+  </si>
+  <si>
+    <t>RemoteViews</t>
+  </si>
+  <si>
+    <t>1. 海平线，巨型手机
+2. 闹钟，大脑
+3. 海平线，巨型手机，梨和蛇
+4. 海平线，巨型手机，app发热</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -87,6 +122,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -94,11 +151,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,84 +167,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,19 +212,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,181 +287,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,11 +487,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,6 +516,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,21 +555,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,15 +576,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -528,21 +584,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -551,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,134 +607,134 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,6 +749,18 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1028,19 +1081,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.2222222222222" customWidth="1"/>
-    <col min="3" max="5" width="9.66666666666667"/>
-    <col min="6" max="8" width="10.7777777777778"/>
-    <col min="9" max="9" width="9.66666666666667"/>
-    <col min="10" max="11" width="10.7777777777778"/>
+    <col min="1" max="1" width="22.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="9.66666666666667"/>
+    <col min="4" max="9" width="10.7777777777778"/>
+    <col min="10" max="11" width="11.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1084,35 +1137,35 @@
         <v>44045</v>
       </c>
       <c r="D2" s="2">
-        <f>C2+1</f>
+        <f t="shared" ref="D2:D10" si="0">C2+1</f>
         <v>44046</v>
       </c>
       <c r="E2" s="2">
-        <f>D2+2</f>
+        <f t="shared" ref="E2:E10" si="1">D2+2</f>
         <v>44048</v>
       </c>
       <c r="F2" s="3">
-        <f>E2+3</f>
+        <f t="shared" ref="F2:F10" si="2">E2+3</f>
         <v>44051</v>
       </c>
       <c r="G2" s="4">
-        <f>F2+5</f>
+        <f t="shared" ref="G2:G10" si="3">F2+5</f>
         <v>44056</v>
       </c>
       <c r="H2" s="4">
-        <f>G2+8</f>
+        <f t="shared" ref="H2:H10" si="4">G2+8</f>
         <v>44064</v>
       </c>
       <c r="I2" s="4">
-        <f>H2+15</f>
+        <f t="shared" ref="I2:I10" si="5">H2+15</f>
         <v>44079</v>
       </c>
       <c r="J2" s="4">
-        <f>I2+30</f>
+        <f t="shared" ref="J2:J10" si="6">I2+30</f>
         <v>44109</v>
       </c>
       <c r="K2" s="4">
-        <f>J2+60</f>
+        <f t="shared" ref="K2:K10" si="7">J2+60</f>
         <v>44169</v>
       </c>
     </row>
@@ -1124,35 +1177,35 @@
         <v>44045</v>
       </c>
       <c r="D3" s="2">
-        <f>C3+1</f>
+        <f t="shared" si="0"/>
         <v>44046</v>
       </c>
       <c r="E3" s="2">
-        <f>D3+2</f>
+        <f t="shared" si="1"/>
         <v>44048</v>
       </c>
       <c r="F3" s="3">
-        <f>E3+3</f>
+        <f t="shared" si="2"/>
         <v>44051</v>
       </c>
       <c r="G3" s="4">
-        <f>F3+5</f>
+        <f t="shared" si="3"/>
         <v>44056</v>
       </c>
       <c r="H3" s="4">
-        <f>G3+8</f>
+        <f t="shared" si="4"/>
         <v>44064</v>
       </c>
       <c r="I3" s="4">
-        <f>H3+15</f>
+        <f t="shared" si="5"/>
         <v>44079</v>
       </c>
       <c r="J3" s="4">
-        <f>I3+30</f>
+        <f t="shared" si="6"/>
         <v>44109</v>
       </c>
       <c r="K3" s="4">
-        <f>J3+60</f>
+        <f t="shared" si="7"/>
         <v>44169</v>
       </c>
     </row>
@@ -1164,35 +1217,35 @@
         <v>44045</v>
       </c>
       <c r="D4" s="2">
-        <f>C4+1</f>
+        <f t="shared" si="0"/>
         <v>44046</v>
       </c>
       <c r="E4" s="2">
-        <f>D4+2</f>
+        <f t="shared" si="1"/>
         <v>44048</v>
       </c>
       <c r="F4" s="3">
-        <f>E4+3</f>
+        <f t="shared" si="2"/>
         <v>44051</v>
       </c>
       <c r="G4" s="4">
-        <f>F4+5</f>
+        <f t="shared" si="3"/>
         <v>44056</v>
       </c>
       <c r="H4" s="4">
-        <f>G4+8</f>
+        <f t="shared" si="4"/>
         <v>44064</v>
       </c>
       <c r="I4" s="4">
-        <f>H4+15</f>
+        <f t="shared" si="5"/>
         <v>44079</v>
       </c>
       <c r="J4" s="4">
-        <f>I4+30</f>
+        <f t="shared" si="6"/>
         <v>44109</v>
       </c>
       <c r="K4" s="4">
-        <f>J4+60</f>
+        <f t="shared" si="7"/>
         <v>44169</v>
       </c>
     </row>
@@ -1204,35 +1257,35 @@
         <v>44045</v>
       </c>
       <c r="D5" s="2">
-        <f>C5+1</f>
+        <f t="shared" si="0"/>
         <v>44046</v>
       </c>
       <c r="E5" s="2">
-        <f>D5+2</f>
+        <f t="shared" si="1"/>
         <v>44048</v>
       </c>
       <c r="F5" s="3">
-        <f>E5+3</f>
+        <f t="shared" si="2"/>
         <v>44051</v>
       </c>
       <c r="G5" s="4">
-        <f>F5+5</f>
+        <f t="shared" si="3"/>
         <v>44056</v>
       </c>
       <c r="H5" s="4">
-        <f>G5+8</f>
+        <f t="shared" si="4"/>
         <v>44064</v>
       </c>
       <c r="I5" s="4">
-        <f>H5+15</f>
+        <f t="shared" si="5"/>
         <v>44079</v>
       </c>
       <c r="J5" s="4">
-        <f>I5+30</f>
+        <f t="shared" si="6"/>
         <v>44109</v>
       </c>
       <c r="K5" s="4">
-        <f>J5+60</f>
+        <f t="shared" si="7"/>
         <v>44169</v>
       </c>
     </row>
@@ -1244,35 +1297,35 @@
         <v>44045</v>
       </c>
       <c r="D6" s="2">
-        <f>C6+1</f>
+        <f t="shared" si="0"/>
         <v>44046</v>
       </c>
       <c r="E6" s="2">
-        <f>D6+2</f>
+        <f t="shared" si="1"/>
         <v>44048</v>
       </c>
       <c r="F6" s="3">
-        <f>E6+3</f>
+        <f t="shared" si="2"/>
         <v>44051</v>
       </c>
       <c r="G6" s="4">
-        <f>F6+5</f>
+        <f t="shared" si="3"/>
         <v>44056</v>
       </c>
       <c r="H6" s="4">
-        <f>G6+8</f>
+        <f t="shared" si="4"/>
         <v>44064</v>
       </c>
       <c r="I6" s="4">
-        <f>H6+15</f>
+        <f t="shared" si="5"/>
         <v>44079</v>
       </c>
       <c r="J6" s="4">
-        <f>I6+30</f>
+        <f t="shared" si="6"/>
         <v>44109</v>
       </c>
       <c r="K6" s="4">
-        <f>J6+60</f>
+        <f t="shared" si="7"/>
         <v>44169</v>
       </c>
     </row>
@@ -1284,35 +1337,35 @@
         <v>44045</v>
       </c>
       <c r="D7" s="2">
-        <f>C7+1</f>
+        <f t="shared" si="0"/>
         <v>44046</v>
       </c>
       <c r="E7" s="2">
-        <f>D7+2</f>
+        <f t="shared" si="1"/>
         <v>44048</v>
       </c>
       <c r="F7" s="3">
-        <f>E7+3</f>
+        <f t="shared" si="2"/>
         <v>44051</v>
       </c>
       <c r="G7" s="4">
-        <f>F7+5</f>
+        <f t="shared" si="3"/>
         <v>44056</v>
       </c>
       <c r="H7" s="4">
-        <f>G7+8</f>
+        <f t="shared" si="4"/>
         <v>44064</v>
       </c>
       <c r="I7" s="4">
-        <f>H7+15</f>
+        <f t="shared" si="5"/>
         <v>44079</v>
       </c>
       <c r="J7" s="4">
-        <f>I7+30</f>
+        <f t="shared" si="6"/>
         <v>44109</v>
       </c>
       <c r="K7" s="4">
-        <f>J7+60</f>
+        <f t="shared" si="7"/>
         <v>44169</v>
       </c>
     </row>
@@ -1324,35 +1377,35 @@
         <v>44045</v>
       </c>
       <c r="D8" s="2">
-        <f>C8+1</f>
+        <f t="shared" si="0"/>
         <v>44046</v>
       </c>
       <c r="E8" s="2">
-        <f>D8+2</f>
+        <f t="shared" si="1"/>
         <v>44048</v>
       </c>
       <c r="F8" s="3">
-        <f>E8+3</f>
+        <f t="shared" si="2"/>
         <v>44051</v>
       </c>
       <c r="G8" s="4">
-        <f>F8+5</f>
+        <f t="shared" si="3"/>
         <v>44056</v>
       </c>
       <c r="H8" s="4">
-        <f>G8+8</f>
+        <f t="shared" si="4"/>
         <v>44064</v>
       </c>
       <c r="I8" s="4">
-        <f>H8+15</f>
+        <f t="shared" si="5"/>
         <v>44079</v>
       </c>
       <c r="J8" s="4">
-        <f>I8+30</f>
+        <f t="shared" si="6"/>
         <v>44109</v>
       </c>
       <c r="K8" s="4">
-        <f>J8+60</f>
+        <f t="shared" si="7"/>
         <v>44169</v>
       </c>
     </row>
@@ -1364,73 +1417,313 @@
         <v>44045</v>
       </c>
       <c r="D9" s="2">
-        <f>C9+1</f>
+        <f t="shared" si="0"/>
         <v>44046</v>
       </c>
       <c r="E9" s="2">
-        <f>D9+2</f>
+        <f t="shared" si="1"/>
         <v>44048</v>
       </c>
       <c r="F9" s="3">
-        <f>E9+3</f>
+        <f t="shared" si="2"/>
         <v>44051</v>
       </c>
       <c r="G9" s="4">
-        <f>F9+5</f>
+        <f t="shared" si="3"/>
         <v>44056</v>
       </c>
       <c r="H9" s="4">
-        <f>G9+8</f>
+        <f t="shared" si="4"/>
         <v>44064</v>
       </c>
       <c r="I9" s="4">
-        <f>H9+15</f>
+        <f t="shared" si="5"/>
         <v>44079</v>
       </c>
       <c r="J9" s="4">
-        <f>I9+30</f>
+        <f t="shared" si="6"/>
         <v>44109</v>
       </c>
       <c r="K9" s="4">
-        <f>J9+60</f>
+        <f t="shared" si="7"/>
         <v>44169</v>
       </c>
     </row>
-    <row r="10" spans="3:11">
-      <c r="C10" s="4">
-        <v>44046</v>
-      </c>
-      <c r="D10" s="4">
-        <f>C10+1</f>
-        <v>44047</v>
-      </c>
-      <c r="E10" s="4">
-        <f>D10+2</f>
+    <row r="10" ht="16" customHeight="1" spans="1:11">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6">
         <v>44049</v>
       </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>44050</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
+        <v>44052</v>
+      </c>
       <c r="F10" s="4">
-        <f>E10+3</f>
+        <f t="shared" si="2"/>
+        <v>44055</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="3"/>
+        <v>44060</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="4"/>
+        <v>44068</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="5"/>
+        <v>44083</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="6"/>
+        <v>44113</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="7"/>
+        <v>44173</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6">
+        <v>44049</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" ref="D11:D16" si="8">C11+1</f>
+        <v>44050</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" ref="E11:E16" si="9">D11+2</f>
         <v>44052</v>
       </c>
-      <c r="G10" s="4">
-        <f>F10+5</f>
+      <c r="F11" s="4">
+        <f t="shared" ref="F11:F16" si="10">E11+3</f>
+        <v>44055</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" ref="G11:G16" si="11">F11+5</f>
+        <v>44060</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" ref="H11:H16" si="12">G11+8</f>
+        <v>44068</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" ref="I11:I16" si="13">H11+15</f>
+        <v>44083</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" ref="J11:J16" si="14">I11+30</f>
+        <v>44113</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" ref="K11:K16" si="15">J11+60</f>
+        <v>44173</v>
+      </c>
+    </row>
+    <row r="12" ht="16" customHeight="1" spans="1:11">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="7">
+        <v>44050</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="8"/>
+        <v>44051</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="9"/>
+        <v>44053</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="10"/>
+        <v>44056</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="11"/>
+        <v>44061</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="12"/>
+        <v>44069</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="13"/>
+        <v>44084</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="14"/>
+        <v>44114</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="15"/>
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13" s="4">
+        <v>44051</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="8"/>
+        <v>44052</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="9"/>
+        <v>44054</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="10"/>
         <v>44057</v>
       </c>
-      <c r="H10" s="4">
-        <f>G10+8</f>
-        <v>44065</v>
-      </c>
-      <c r="I10" s="4">
-        <f>H10+15</f>
-        <v>44080</v>
-      </c>
-      <c r="J10" s="4">
-        <f>I10+30</f>
-        <v>44110</v>
-      </c>
-      <c r="K10" s="4">
-        <f>J10+60</f>
-        <v>44170</v>
+      <c r="G13" s="4">
+        <f t="shared" si="11"/>
+        <v>44062</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="12"/>
+        <v>44070</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="13"/>
+        <v>44085</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="14"/>
+        <v>44115</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="15"/>
+        <v>44175</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="C14" s="4">
+        <v>44051</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="8"/>
+        <v>44052</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="9"/>
+        <v>44054</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="10"/>
+        <v>44057</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="11"/>
+        <v>44062</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="12"/>
+        <v>44070</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="13"/>
+        <v>44085</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="14"/>
+        <v>44115</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="15"/>
+        <v>44175</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11">
+      <c r="C15" s="4">
+        <v>44051</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="8"/>
+        <v>44052</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="9"/>
+        <v>44054</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="10"/>
+        <v>44057</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="11"/>
+        <v>44062</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="12"/>
+        <v>44070</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="13"/>
+        <v>44085</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="14"/>
+        <v>44115</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="15"/>
+        <v>44175</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="C16" s="4">
+        <v>44051</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="8"/>
+        <v>44052</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="9"/>
+        <v>44054</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="10"/>
+        <v>44057</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="11"/>
+        <v>44062</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="12"/>
+        <v>44070</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="13"/>
+        <v>44085</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="14"/>
+        <v>44115</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="15"/>
+        <v>44175</v>
       </c>
     </row>
   </sheetData>

--- a/feather/复习表.xlsx
+++ b/feather/复习表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>30min</t>
   </si>
@@ -92,13 +92,13 @@
     <t>RemoteViews</t>
   </si>
   <si>
-    <t>1. 海平线，巨型手机
-2. 闹钟，大脑
-3. 海平线，巨型手机，梨和蛇
-4. 海平线，巨型手机，app发热</t>
+    <t>1100-1103</t>
   </si>
   <si>
     <t>Window和WM</t>
+  </si>
+  <si>
+    <t>1104-1113</t>
   </si>
   <si>
     <t>1000(听觉)</t>
@@ -117,6 +117,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>机器人</t>
     </r>
     <r>
@@ -162,6 +169,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>呼啦圈</t>
     </r>
     <r>
@@ -382,6 +397,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>脑子人</t>
     </r>
     <r>
@@ -427,6 +449,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>闹钟脑子</t>
     </r>
     <r>
@@ -687,6 +717,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>鹅</t>
     </r>
     <r>
@@ -712,10 +749,11 @@
   </si>
   <si>
     <r>
-      <t>金字塔</t>
-    </r>
-    <r>
-      <rPr>
+      <t>鹅</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -726,38 +764,479 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>房屋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>耳朵，唱歌</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>海平线</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+我骑着一只</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大白鹅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在海面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上飘荡，突然</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“咚咚咚”的鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，水花飞溅到我的衣服上面，衣服湿哒哒的，原来是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一只梨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>掉到了水里面。我把梨捡了起来，擦干净，划到岸边准备吃梨。我坐在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>板凳儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上面，感觉板凳儿有点高低不平，我低头看了一下，板凳儿下面居然压住了一只</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大蟒蛇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，大蟒蛇张开血盆大口扑向了我。我惊恐的尖叫突然放了个臭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>屁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，把蛇给臭死了。我的裤子也给崩坏了。我准备买个新裤子，翻开钱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，拿出里面的成吨的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>资金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，直接自己开一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>做裤子。新开的布局，我把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，上面贴着一个巨大的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。我邀请一个电影团队给我拍片，我坐在一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>煤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>炭做的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>板凳儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上面，导演“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>action！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”咔的一声开拍了。我打开一个古老的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>信封</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，上面有着黑魔法的痕迹，耀眼而深邃，我打开信封，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>两只蛇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>窜了出来，我吓了一大跳，工作人员哈哈大笑。我愤怒的说道“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，你们在这里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ibi！”</t>
     </r>
   </si>
   <si>
     <r>
-      <t>帆船</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金字塔</t>
     </r>
     <r>
       <rPr>
@@ -777,35 +1256,36 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>球棒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>唱歌</t>
+      <t>房屋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>耳朵，唱歌</t>
     </r>
   </si>
   <si>
     <r>
-      <t>月亮下</t>
-    </r>
-    <r>
-      <rPr>
+      <t>耳朵</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -816,16 +1296,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>钩子</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>海平面</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -836,38 +1318,197 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>唱歌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>球棒</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>耳朵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贴在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>海平面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上静静听着，水下传来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阵阵鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。是我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的铃声，我找到了掉到海里面的手机。我迫不及待打开了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，手机突然</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>热</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>得发烫，像岩浆一样滚烫和火红。我要换新手机了，我和领导打电话说“我要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加薪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，领导缺扔给我一堆废</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，废纸漫天飞舞！</t>
     </r>
   </si>
   <si>
     <r>
-      <t>勺子</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>帆船</t>
     </r>
     <r>
       <rPr>
@@ -887,7 +1528,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>月亮型MP3</t>
+      <t>球棒</t>
     </r>
     <r>
       <rPr>
@@ -907,15 +1548,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>歌曲</t>
+      <t>唱歌</t>
     </r>
   </si>
   <si>
     <r>
-      <t>镰刀</t>
-    </r>
-    <r>
-      <rPr>
+      <t>窗户</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -926,16 +1568,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>进城</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>帆船</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -946,18 +1590,317 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>哼歌</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+我家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>窗户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>帆船</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中乘风破浪，窗户上挂着一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保姆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>把图画摘下来抱在怀中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小孩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>抓着保护的衣角哭闹着。保姆领着小孩坐在了一个参天大树下，参天大树的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>根</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部盘庚错节，树根缠绕着一只大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。我走过去抚摸着大象，突然“咚咚咚”鼓声在口袋里响起，我掏出我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，原来是收到了一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“我是保姆，我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>擦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>窗户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了，我忙不过来！”这是一阵“沙沙”的声音，脚边的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>草丛里面钻出来一条M形状的蛇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，蛇缠绕着一个巧克力的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PC机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，跟我说“把这个PC给我我就帮你擦玻璃”</t>
     </r>
   </si>
   <si>
     <r>
-      <t>雪人</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月亮下</t>
     </r>
     <r>
       <rPr>
@@ -972,12 +1915,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>赚钱</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钩子</t>
     </r>
     <r>
       <rPr>
@@ -992,12 +1935,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>进城</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>唱歌</t>
     </r>
     <r>
       <rPr>
@@ -1012,20 +1955,21 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>哼歌</t>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>球棒</t>
     </r>
   </si>
   <si>
     <r>
-      <t>王善旭</t>
-    </r>
-    <r>
-      <rPr>
+      <t>钩子</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -1036,16 +1980,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>哨子</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布制参天大树</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -1056,18 +2002,317 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>歌声</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+我被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钩子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吊在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布制的参天大树</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声四起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，正在进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>棋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>艺大赛。我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不焦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>躁，把手机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>锁屏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，最终赢得了比赛。比赛奖品是给我窗户，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>窗户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可选择的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>很多。我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应仔细</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>挑选，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弟弟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄湘博抱着我儿子跑了过来，气喘吁吁，脸色通红。他吃起了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>麦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吐司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，找回了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。他力大无穷举起来金字塔，然后把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金字塔倒立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在地上。</t>
     </r>
   </si>
   <si>
     <r>
-      <t>螺丝</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>勺子</t>
     </r>
     <r>
       <rPr>
@@ -1082,12 +2327,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>棒球</t>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月亮型MP3</t>
     </r>
     <r>
       <rPr>
@@ -1107,11 +2352,1967 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>哼歌</t>
+      <t>歌曲</t>
     </r>
   </si>
   <si>
     <r>
+      <t>勺子</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>窗户</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+我用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>勺子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敲打</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>窗户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声震天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，特别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>塞心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。我和楼下的大妈们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交互</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>起来。最终我坐在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>板凳儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>舒服了很多。我打开了AV，看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>女优在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日草丛中钻出来的M形状的蟒蛇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>镰刀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进城</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哼歌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>镰刀</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>令牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中耍起了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>镰刀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，突然</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>令牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无意间滑落，全场鸦雀无声，这是六海八荒王者令牌。我无奈的坐在了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>板凳儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上低调，望着远处的窗户，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>窗户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上补满</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蟒蛇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图案。我双手颤抖，汗水从眼角滑落，我拿出笔写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>活动记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就在这时我的笔上布满了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>草丛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我随机画下了一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>心。这时候一个大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>奶子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放在了我的手臂上，酥软而温暖。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雪人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赚钱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进城</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哼歌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>雪人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>增加画作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>抱着一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雪人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，冰冷刺骨，仆人们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声震天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，雪人跟我说他想要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>增加一个画作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>姐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>代理全球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画家的。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绘制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了，一幅上面有个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>树根的画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作，一幅是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装潢风格设计图的画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作，将它们都挂在一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天大树上。此时旁边一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蛇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画家，已经没用了，用蛇把树根画和装潢风格画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在了一起。画作完成了准备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请求布局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提供高质量画布，人员告诉我们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计划周游</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全世界的假，他们安排了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编舞师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给我们跳舞作为赔礼道歉。要给画作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>增加窗口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>玻璃，是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>形状的。脚边</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>草丛里面爬出一条M形状蛇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，它有团队给我们添</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加窗口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>玻璃。姐姐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>检查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参天大树</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下面的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>令牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，然后把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>令牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>窗口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>玻璃用那只</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蛇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绑在了一起。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>王善旭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哨子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>歌声</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>哨子</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>销毁画作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+我吹着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哨子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，阵阵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中把所有人召集了起来，我今天要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>销毁画作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。出来干这事的人是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同学，离异</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>首席清洁工。他把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>树根画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>搬了出来，跟我说他婚姻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>死亡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的原因是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作死</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，发了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>离异</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。离婚后遇到了一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大富翁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成为了他的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>清洁工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>情一直很糟糕，直到看到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>草丛中一直小蛇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>居然是顶级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编舞师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在跳街舞。他找回信心立志成为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顶级清洁工。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>螺丝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>棒球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哼歌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>棒球</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新画布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+我用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>棒球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，像敲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一样，把画布敲坏了。需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新画布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我把树</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>根</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画放在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天大树底下，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>让</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给更换画布，布局搬出了一个奶油做的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，设计画布。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>楼梯</t>
     </r>
     <r>
@@ -1352,6 +4553,314 @@
   </si>
   <si>
     <r>
+      <t>梯子</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画作</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+我爬上一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>梯子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，画了一颗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月亮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。突然</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“咚咚咚”鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，耀眼的闪光灯，回头看是一个人在用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拍照，我拿出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>棒子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>准备打他，人就跑了。我用棒子棍子要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>搭建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一个有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装潢风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设计图的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月亮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>屋，搭建好之后我把家具拖了进去准备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装修月亮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>屋，一切好了之后。我开怀大笑，站在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2个月亮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模型上手舞足蹈。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>38</t>
     </r>
     <r>
@@ -1512,6 +5021,374 @@
   </si>
   <si>
     <r>
+      <t>椅子</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装饰贴画贴到窗户上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+我坐在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>椅子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上，准备将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装饰贴画贴到窗户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上，旁边传来了一阵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。我把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装饰贴画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装饰贴画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缺还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不可以贴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>窗户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上。我在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绣出了一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扳手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并且</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>继续制作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贴画，把装饰贴画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添加到油画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上，就可以贴到窗户上了。一切准备好后，我拉开巨型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>幕布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，完美的艺术品展现在眼前。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>医生</t>
     </r>
     <r>
@@ -1792,6 +5669,394 @@
   </si>
   <si>
     <r>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弹窗户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，敲着鼓，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中我在用手指</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>窗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户。窗户坏了，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>帕姆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是专业工人，专门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>制作新窗户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弟弟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>把油</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拖了过来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装饰贴画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添加一个画作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，帕姆就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>移除一个画作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，帕姆不允许玷污他的窗户。这是一个神秘人拿着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>形状红彤彤的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>令牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，一个黑衣人拿着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>西瓜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>形状的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>令牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给了帕姆，师父和祖师爷！</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>钥匙</t>
     </r>
     <r>
@@ -1972,6 +6237,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>鹦鹉</t>
     </r>
     <r>
@@ -2192,6 +6465,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>石榴</t>
     </r>
     <r>
@@ -2512,6 +6793,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>仪器</t>
     </r>
     <r>
@@ -2732,6 +7021,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>糖葫芦</t>
     </r>
     <r>
@@ -2892,6 +7189,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>药酒</t>
     </r>
     <r>
@@ -3032,6 +7337,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>香烟</t>
     </r>
     <r>
@@ -3272,6 +7585,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>UU，</t>
     </r>
     <r>
@@ -3421,6 +7742,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>双胞胎</t>
     </r>
     <r>
@@ -3561,6 +7890,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>和尚</t>
     </r>
     <r>
@@ -3701,6 +8038,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>DJ曲别针</t>
     </r>
     <r>
@@ -3879,6 +8224,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>打地基</t>
     </r>
     <r>
@@ -4035,6 +8387,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>河流</t>
     </r>
     <r>
@@ -4192,6 +8551,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>chrome浏览器</t>
     </r>
     <r>
@@ -4310,6 +8677,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>恶霸</t>
     </r>
     <r>
@@ -4570,6 +8945,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>饿囚</t>
     </r>
     <r>
@@ -4830,6 +9213,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>三轮车</t>
     </r>
     <r>
@@ -4990,6 +9381,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>鲨鱼</t>
     </r>
     <r>
@@ -5150,6 +9549,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>扇子</t>
     </r>
     <r>
@@ -5370,6 +9777,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>星星</t>
     </r>
     <r>
@@ -5770,6 +10185,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>丝绸</t>
     </r>
     <r>
@@ -6030,6 +10453,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>山虎</t>
     </r>
     <r>
@@ -6270,6 +10701,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>鹿</t>
     </r>
     <r>
@@ -6410,6 +10849,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>山鸡</t>
     </r>
     <r>
@@ -6590,6 +11037,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>美女</t>
     </r>
     <r>
@@ -6790,6 +11245,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>山丘</t>
     </r>
     <r>
@@ -6940,6 +11403,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>司令</t>
     </r>
     <r>
@@ -7200,6 +11671,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>蜥蜴</t>
     </r>
     <r>
@@ -7400,6 +11879,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>柿子</t>
     </r>
     <r>
@@ -7564,9 +12051,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -7632,24 +12119,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7671,29 +12150,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7701,15 +12158,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7724,9 +12188,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7747,7 +12233,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7761,16 +12247,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7797,13 +12284,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7815,7 +12368,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7827,43 +12410,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7881,103 +12464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7988,17 +12475,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -8026,17 +12502,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8056,26 +12543,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8096,10 +12583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8108,16 +12595,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8126,119 +12613,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8255,6 +12742,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8606,7 +13096,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8620,35 +13110,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="11">
         <v>1</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="11">
         <v>2</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="11">
         <v>3</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="11">
         <v>5</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="11">
         <v>8</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="11">
         <v>15</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8659,37 +13149,37 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="12">
         <v>44045</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <f t="shared" ref="D2:D10" si="0">C2+1</f>
         <v>44046</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="12">
         <f t="shared" ref="E2:E10" si="1">D2+2</f>
         <v>44048</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="12">
         <v>44052</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="13">
         <f t="shared" ref="G2:G10" si="2">F2+5</f>
         <v>44057</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="14">
         <f t="shared" ref="H2:H10" si="3">G2+8</f>
         <v>44065</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="14">
         <f t="shared" ref="I2:I10" si="4">H2+15</f>
         <v>44080</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="14">
         <f t="shared" ref="J2:J10" si="5">I2+30</f>
         <v>44110</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="14">
         <f t="shared" ref="K2:K10" si="6">J2+60</f>
         <v>44170</v>
       </c>
@@ -8701,37 +13191,37 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>44045</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <f t="shared" si="0"/>
         <v>44046</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>44052</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="13">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="14">
         <f t="shared" si="3"/>
         <v>44065</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="14">
         <f t="shared" si="4"/>
         <v>44080</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="14">
         <f t="shared" si="5"/>
         <v>44110</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="14">
         <f t="shared" si="6"/>
         <v>44170</v>
       </c>
@@ -8743,37 +13233,37 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="12">
         <v>44045</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <f t="shared" si="0"/>
         <v>44046</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="12">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="12">
         <v>44052</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="13">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="14">
         <f t="shared" si="3"/>
         <v>44065</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="14">
         <f t="shared" si="4"/>
         <v>44080</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="14">
         <f t="shared" si="5"/>
         <v>44110</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="14">
         <f t="shared" si="6"/>
         <v>44170</v>
       </c>
@@ -8785,37 +13275,37 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="12">
         <v>44045</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>44046</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="12">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>44052</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="13">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="14">
         <f t="shared" si="3"/>
         <v>44065</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="14">
         <f t="shared" si="4"/>
         <v>44080</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="14">
         <f t="shared" si="5"/>
         <v>44110</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="14">
         <f t="shared" si="6"/>
         <v>44170</v>
       </c>
@@ -8827,37 +13317,37 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>44045</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>44046</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="12">
         <v>44052</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="13">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="14">
         <f t="shared" si="3"/>
         <v>44065</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="14">
         <f t="shared" si="4"/>
         <v>44080</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="14">
         <f t="shared" si="5"/>
         <v>44110</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="14">
         <f t="shared" si="6"/>
         <v>44170</v>
       </c>
@@ -8869,37 +13359,37 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>44045</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>44046</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="12">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="12">
         <v>44052</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="13">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="14">
         <f t="shared" si="3"/>
         <v>44065</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="14">
         <f t="shared" si="4"/>
         <v>44080</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="14">
         <f t="shared" si="5"/>
         <v>44110</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="14">
         <f t="shared" si="6"/>
         <v>44170</v>
       </c>
@@ -8911,37 +13401,37 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <v>44045</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>44046</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="12">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="12">
         <v>44052</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="13">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="14">
         <f t="shared" si="3"/>
         <v>44065</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="14">
         <f t="shared" si="4"/>
         <v>44080</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="14">
         <f t="shared" si="5"/>
         <v>44110</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="14">
         <f t="shared" si="6"/>
         <v>44170</v>
       </c>
@@ -8953,37 +13443,37 @@
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="12">
         <v>44045</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>44046</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="12">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="12">
         <v>44052</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="13">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="14">
         <f t="shared" si="3"/>
         <v>44065</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="14">
         <f t="shared" si="4"/>
         <v>44080</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="14">
         <f t="shared" si="5"/>
         <v>44110</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="14">
         <f t="shared" si="6"/>
         <v>44170</v>
       </c>
@@ -8992,41 +13482,41 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="12">
         <v>44049</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>44050</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="12">
         <f t="shared" si="1"/>
         <v>44052</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="13">
         <f>E10+3</f>
         <v>44055</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="14">
         <f t="shared" si="2"/>
         <v>44060</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="14">
         <f t="shared" si="3"/>
         <v>44068</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="14">
         <f t="shared" si="4"/>
         <v>44083</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="14">
         <f t="shared" si="5"/>
         <v>44113</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="14">
         <f t="shared" si="6"/>
         <v>44173</v>
       </c>
@@ -9035,41 +13525,41 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="12">
         <v>44049</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="12">
         <f t="shared" ref="D11:D16" si="7">C11+1</f>
         <v>44050</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="12">
         <f t="shared" ref="E11:E16" si="8">D11+2</f>
         <v>44052</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="13">
         <f t="shared" ref="F11:F16" si="9">E11+3</f>
         <v>44055</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="14">
         <f t="shared" ref="G11:G16" si="10">F11+5</f>
         <v>44060</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="14">
         <f t="shared" ref="H11:H16" si="11">G11+8</f>
         <v>44068</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="14">
         <f t="shared" ref="I11:I16" si="12">H11+15</f>
         <v>44083</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="14">
         <f t="shared" ref="J11:J16" si="13">I11+30</f>
         <v>44113</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="14">
         <f t="shared" ref="K11:K16" si="14">J11+60</f>
         <v>44173</v>
       </c>
@@ -9078,10 +13568,10 @@
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <v>44050</v>
       </c>
       <c r="D12" s="12">
@@ -9091,27 +13581,27 @@
         <f t="shared" si="8"/>
         <v>44055</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="14">
         <f t="shared" si="9"/>
         <v>44058</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="14">
         <f t="shared" si="10"/>
         <v>44063</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="14">
         <f t="shared" si="11"/>
         <v>44071</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="14">
         <f t="shared" si="12"/>
         <v>44086</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="14">
         <f t="shared" si="13"/>
         <v>44116</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="14">
         <f t="shared" si="14"/>
         <v>44176</v>
       </c>
@@ -9120,149 +13610,152 @@
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="13">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="12">
         <v>44053</v>
       </c>
       <c r="D13" s="13">
         <f t="shared" si="7"/>
         <v>44054</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="14">
         <f t="shared" si="8"/>
         <v>44056</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="14">
         <f t="shared" si="9"/>
         <v>44059</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="14">
         <f t="shared" si="10"/>
         <v>44064</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="14">
         <f t="shared" si="11"/>
         <v>44072</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="14">
         <f t="shared" si="12"/>
         <v>44087</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="14">
         <f t="shared" si="13"/>
         <v>44117</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="14">
         <f t="shared" si="14"/>
         <v>44177</v>
       </c>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="13">
+      <c r="C14" s="14">
         <v>44054</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="14">
         <f t="shared" si="7"/>
         <v>44055</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="14">
         <f t="shared" si="8"/>
         <v>44057</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="14">
         <f t="shared" si="9"/>
         <v>44060</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="14">
         <f t="shared" si="10"/>
         <v>44065</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="14">
         <f t="shared" si="11"/>
         <v>44073</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="14">
         <f t="shared" si="12"/>
         <v>44088</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="14">
         <f t="shared" si="13"/>
         <v>44118</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="14">
         <f t="shared" si="14"/>
         <v>44178</v>
       </c>
     </row>
     <row r="15" spans="3:11">
-      <c r="C15" s="13">
+      <c r="C15" s="14">
         <v>44055</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="14">
         <f t="shared" si="7"/>
         <v>44056</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="14">
         <f t="shared" si="8"/>
         <v>44058</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="14">
         <f t="shared" si="9"/>
         <v>44061</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="14">
         <f t="shared" si="10"/>
         <v>44066</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="14">
         <f t="shared" si="11"/>
         <v>44074</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="14">
         <f t="shared" si="12"/>
         <v>44089</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="14">
         <f t="shared" si="13"/>
         <v>44119</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="14">
         <f t="shared" si="14"/>
         <v>44179</v>
       </c>
     </row>
     <row r="16" spans="3:11">
-      <c r="C16" s="13">
+      <c r="C16" s="14">
         <v>44056</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="14">
         <f t="shared" si="7"/>
         <v>44057</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="14">
         <f t="shared" si="8"/>
         <v>44059</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="14">
         <f t="shared" si="9"/>
         <v>44062</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="14">
         <f t="shared" si="10"/>
         <v>44067</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="14">
         <f t="shared" si="11"/>
         <v>44075</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="14">
         <f t="shared" si="12"/>
         <v>44090</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="14">
         <f t="shared" si="13"/>
         <v>44120</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="14">
         <f t="shared" si="14"/>
         <v>44180</v>
       </c>
@@ -9278,8 +13771,8 @@
   <sheetPr/>
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -9287,392 +13780,428 @@
     <col min="1" max="1" width="11.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="33.3333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="29.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="39.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="3" ht="115.2" spans="1:4">
+    <row r="3" ht="104" customHeight="1" spans="1:4">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>1100</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="4" ht="129.6" spans="1:4">
+    <row r="4" ht="114" customHeight="1" spans="1:4">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>1101</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="302" customHeight="1" spans="1:4">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>1102</v>
       </c>
+      <c r="D5" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" ht="115.2" spans="1:4">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>1103</v>
       </c>
+      <c r="D6" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" ht="187.2" spans="1:4">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>1104</v>
       </c>
+      <c r="D7" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="129.6" spans="1:4">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>1105</v>
       </c>
+      <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="72" spans="1:4">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>1106</v>
       </c>
+      <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" ht="129.6" spans="1:4">
       <c r="A10">
         <v>1007</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>1107</v>
       </c>
+      <c r="D10" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" ht="230.4" spans="1:4">
       <c r="A11">
         <v>1008</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>1108</v>
       </c>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" ht="144" spans="1:4">
       <c r="A12">
         <v>1009</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>1109</v>
       </c>
+      <c r="D12" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" ht="72" spans="1:4">
       <c r="A13">
         <v>1010</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>1110</v>
       </c>
+      <c r="D13" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="14" ht="149" customHeight="1" spans="1:3">
+    <row r="14" ht="149" customHeight="1" spans="1:4">
       <c r="A14">
         <v>1011</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>45</v>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C14">
         <v>1111</v>
       </c>
+      <c r="D14" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="15" ht="105" customHeight="1" spans="1:3">
+    <row r="15" ht="114" customHeight="1" spans="1:4">
       <c r="A15">
         <v>1012</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>46</v>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C15">
         <v>1112</v>
       </c>
+      <c r="D15" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="16" ht="158.4" spans="1:3">
+    <row r="16" ht="129.6" spans="1:4">
       <c r="A16">
         <v>1013</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>47</v>
+      <c r="B16" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C16">
         <v>1113</v>
       </c>
+      <c r="D16" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="17" ht="115.2" spans="1:3">
+    <row r="17" ht="86.4" spans="1:3">
       <c r="A17">
         <v>1014</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>48</v>
+      <c r="B17" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C17">
         <v>1114</v>
       </c>
     </row>
-    <row r="18" ht="158.4" spans="1:3">
+    <row r="18" ht="115.2" spans="1:3">
       <c r="A18">
         <v>1015</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>49</v>
+      <c r="B18" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C18">
         <v>1115</v>
       </c>
     </row>
-    <row r="19" ht="172.8" spans="1:3">
+    <row r="19" ht="144" spans="1:3">
       <c r="A19">
         <v>1016</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>50</v>
+      <c r="B19" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C19">
         <v>1116</v>
       </c>
     </row>
-    <row r="20" ht="86.4" spans="1:3">
+    <row r="20" ht="72" spans="1:3">
       <c r="A20">
         <v>1017</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>51</v>
+      <c r="B20" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C20">
         <v>1117</v>
       </c>
     </row>
-    <row r="21" ht="100.8" spans="1:3">
+    <row r="21" ht="86.4" spans="1:3">
       <c r="A21">
         <v>1018</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>52</v>
+      <c r="B21" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C21">
         <v>1118</v>
       </c>
     </row>
-    <row r="22" ht="72" spans="1:3">
+    <row r="22" ht="57.6" spans="1:3">
       <c r="A22">
         <v>1019</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>53</v>
+      <c r="B22" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C22">
         <v>1119</v>
       </c>
     </row>
-    <row r="23" ht="129.6" spans="1:3">
+    <row r="23" ht="100.8" spans="1:3">
       <c r="A23">
         <v>1020</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>54</v>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C23">
         <v>1120</v>
       </c>
     </row>
-    <row r="24" ht="72" spans="1:3">
+    <row r="24" ht="57.6" spans="1:3">
       <c r="A24">
         <v>1021</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>55</v>
+      <c r="B24" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C24">
         <v>1121</v>
       </c>
     </row>
-    <row r="25" ht="57.6" spans="1:3">
+    <row r="25" ht="43.2" spans="1:3">
       <c r="A25">
         <v>1022</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>56</v>
+      <c r="B25" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C25">
         <v>1122</v>
       </c>
     </row>
-    <row r="26" ht="72" spans="1:3">
+    <row r="26" ht="57.6" spans="1:3">
       <c r="A26">
         <v>1023</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>57</v>
+      <c r="B26" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C26">
         <v>1123</v>
       </c>
     </row>
-    <row r="27" ht="129.6" spans="1:3">
+    <row r="27" ht="100.8" spans="1:3">
       <c r="A27">
         <v>1024</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>58</v>
+      <c r="B27" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C27">
         <v>1124</v>
       </c>
     </row>
-    <row r="28" ht="100.8" spans="1:3">
+    <row r="28" ht="86.4" spans="1:3">
       <c r="A28">
         <v>1025</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>59</v>
+      <c r="B28" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="C28">
         <v>1125</v>
       </c>
     </row>
-    <row r="29" ht="72" spans="1:3">
+    <row r="29" ht="57.6" spans="1:3">
       <c r="A29">
         <v>1026</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>60</v>
+      <c r="B29" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C29">
         <v>1126</v>
       </c>
     </row>
-    <row r="30" ht="86.4" spans="1:3">
+    <row r="30" ht="57.6" spans="1:3">
       <c r="A30">
         <v>1027</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>61</v>
+      <c r="B30" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="C30">
         <v>1127</v>
       </c>
     </row>
-    <row r="31" ht="144" spans="1:3">
+    <row r="31" ht="115.2" spans="1:3">
       <c r="A31">
         <v>1028</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>62</v>
+      <c r="B31" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C31">
         <v>1128</v>
       </c>
     </row>
-    <row r="32" ht="144" spans="1:3">
+    <row r="32" ht="100.8" spans="1:3">
       <c r="A32">
         <v>1029</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>63</v>
+      <c r="B32" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C32">
         <v>1129</v>
       </c>
     </row>
-    <row r="33" ht="100.8" spans="1:3">
+    <row r="33" ht="72" spans="1:3">
       <c r="A33">
         <v>1030</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>64</v>
+      <c r="B33" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C33">
         <v>1130</v>
       </c>
     </row>
-    <row r="34" ht="72" spans="1:3">
+    <row r="34" ht="57.6" spans="1:3">
       <c r="A34">
         <v>1031</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>65</v>
+      <c r="B34" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C34">
         <v>1131</v>
       </c>
     </row>
-    <row r="35" ht="100.8" spans="1:3">
+    <row r="35" ht="72" spans="1:3">
       <c r="A35">
         <v>1032</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>66</v>
+      <c r="B35" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C35">
         <v>1132</v>
@@ -9682,8 +14211,8 @@
       <c r="A36">
         <v>1033</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>67</v>
+      <c r="B36" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C36">
         <v>1133</v>
@@ -9693,8 +14222,8 @@
       <c r="A37">
         <v>1034</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>68</v>
+      <c r="B37" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C37">
         <v>1134</v>
@@ -9704,8 +14233,8 @@
       <c r="A38">
         <v>1035</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>69</v>
+      <c r="B38" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C38">
         <v>1135</v>
@@ -9715,8 +14244,8 @@
       <c r="A39">
         <v>1036</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>70</v>
+      <c r="B39" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C39">
         <v>1136</v>
@@ -9726,8 +14255,8 @@
       <c r="A40">
         <v>1037</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>71</v>
+      <c r="B40" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C40">
         <v>1137</v>
@@ -9737,8 +14266,8 @@
       <c r="A41">
         <v>1038</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>72</v>
+      <c r="B41" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C41">
         <v>1138</v>
@@ -9748,8 +14277,8 @@
       <c r="A42">
         <v>1039</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>73</v>
+      <c r="B42" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C42">
         <v>1139</v>
@@ -9759,8 +14288,8 @@
       <c r="A43">
         <v>1040</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>74</v>
+      <c r="B43" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C43">
         <v>1140</v>
@@ -9770,8 +14299,8 @@
       <c r="A44">
         <v>1041</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>75</v>
+      <c r="B44" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C44">
         <v>1141</v>
@@ -9781,8 +14310,8 @@
       <c r="A45">
         <v>1042</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>76</v>
+      <c r="B45" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C45">
         <v>1142</v>

--- a/feather/复习表.xlsx
+++ b/feather/复习表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>30min</t>
   </si>
@@ -98,7 +98,16 @@
     <t>Window和WM</t>
   </si>
   <si>
-    <t>1104-1113</t>
+    <t>1104-1115</t>
+  </si>
+  <si>
+    <t>Activity原理</t>
+  </si>
+  <si>
+    <t>1116-1118</t>
+  </si>
+  <si>
+    <t>Activity生命周期/启动</t>
   </si>
   <si>
     <t>1000(听觉)</t>
@@ -749,6 +758,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>鹅</t>
     </r>
     <r>
@@ -1281,6 +1298,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>耳朵</t>
     </r>
     <r>
@@ -1501,17 +1526,11 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>帆船</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -1522,6 +1541,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="宋体"/>
@@ -1532,6 +1552,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -1542,6 +1563,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
@@ -1549,6 +1571,256 @@
         <scheme val="minor"/>
       </rPr>
       <t>唱歌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ 帆船</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乘风破浪，浪花飞溅，我在上面挥舞着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>球棒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，速度快到呼呼作响，我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>唱起了《此生不换》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。我累了就坐在了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>板凳儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上，旁边的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发动机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>嘎嘎作响。
+ 我滑到摔在了一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扳手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上面，扳手冰凉无比特别硬，屁股钻心的疼。一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>男人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从菊花里面钻了出来，他抱着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>炼金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>玩偶跳舞，突然拿出一份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>米线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>塞到了嘴巴里面，然后力大无穷把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扳手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扳成了两半。他接到了一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，尖叫了出来，要扣钱！
+  地上的缝隙中钻出来一条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蛇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，“嘶嘶”到处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>活动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
     </r>
   </si>
   <si>
@@ -1965,6 +2237,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>钩子</t>
     </r>
     <r>
@@ -2357,6 +2637,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>勺子</t>
     </r>
     <r>
@@ -2649,6 +2937,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>镰刀</t>
     </r>
     <r>
@@ -2981,6 +3277,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>雪人</t>
     </r>
     <r>
@@ -3633,6 +3937,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>哨子</t>
     </r>
     <r>
@@ -4200,7 +4512,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>，我把树</t>
+      <t>，需要全球性大师来解决。我把树</t>
     </r>
     <r>
       <rPr>
@@ -4553,6 +4865,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>梯子</t>
     </r>
     <r>
@@ -5021,6 +5341,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>椅子</t>
     </r>
     <r>
@@ -5669,6 +5997,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>医生</t>
     </r>
     <r>
@@ -6237,6 +6573,494 @@
   </si>
   <si>
     <r>
+      <t>钥匙</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Toast</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ 我拿着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钥匙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，打开了展览厅的大门，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声响了起来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+ 1. 需要展览的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Toast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>橱窗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的玻璃夹着。
+ 2. 突然“咚咚咚”的巨响，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定时闹钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>响了，一个巨大的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门把手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从展台弹了出来。
+ 3. 我接过门把手，呼叫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门管理服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，不久一群人把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铁门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拖到了展厅。
+     我坐在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>板凳儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上，
+     看着展览厅的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>池</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>塘发呆我怒发冲冠一把抓住</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门把手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">扔到了池子里。
+ 4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>展览开始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了，我在厚重的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Toast上面记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>着这伟大的时刻。我走到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铁门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前，在上面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画了一幅画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门把手一长一短</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>两个我都装了上去。我又把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铁门</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上面的画的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画作给撕碎了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+ 5. 一声爆炸响起，天地晃动。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>展会要临时取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>门管理服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的人要拿走铁门，我把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铁门藏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在了背后。</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -6465,6 +7289,286 @@
   </si>
   <si>
     <r>
+      <t>鹦鹉</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高脚杯</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鹦鹉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>叼来一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高脚杯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，点开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蜡烛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>煮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>米</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>咚咚咚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我看到这神奇一幕开始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，突然</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中长出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>树根</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缠住了我。鹦鹉飞到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>树根</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上，拿着米线又咬又扯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>检查米线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>质量。</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -6793,6 +7897,366 @@
   </si>
   <si>
     <r>
+      <t>石榴</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电竞发动机主角</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>石榴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>搭建的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电竞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>比赛场馆中间，一个巨型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发动机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上面站着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主角</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>震耳欲聋，我拖着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仪器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>走到了台上，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>妈妈抱着蛇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>啥都不干又啥都管，她在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发动机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上放满了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>脑子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，插满了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>旗帜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。我抱着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>薯片桶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>刚准备吃，发现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>薯片桶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>监控摄像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。我决定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>煮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>米</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吃。</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -7021,6 +8485,206 @@
   </si>
   <si>
     <r>
+      <t>仪器</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>活动状态</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+我用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仪器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去记录运动员的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>活动状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>耳朵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>听</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。鼓声一声，就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>奔跑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。鼓声两声，就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>暂停</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保持姿势。鼓声三声，就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>停</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下来。</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -7185,6 +8849,711 @@
         <scheme val="minor"/>
       </rPr>
       <t>为龙珠的东西。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>糖葫芦</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>活动开始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  我吃着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>糖葫芦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，听到一阵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大型活动开始啦！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>炎炎烈日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下，哆啦A梦的万能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仪器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，先出来一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱M的蛇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水果拼盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  小蛇给我们拿出一堆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>锐澳鸡尾酒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，我们在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>APP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上面用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>清单，点击发送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。会先拿到一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地球仪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，然后是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主题活动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>热烈活动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+  主题活动是先了解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>活动组成信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乐器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弹奏，开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，和合作队友</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绑在一起，然后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一个房子。【连接的队友也有任务，先捏一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月亮形状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的雕塑，用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高脚杯煮米线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，测试开发的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>造一个手机屏幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，送到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>屏幕管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中心检测，遇到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>父亲检测屏幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>记下屏幕管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中心号码】
+  热烈活动，是先</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>旗帜挥舞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示开始，领取一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手机屏幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，领取一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>装修风格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>屏幕服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图画添加到屏幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">上
+</t>
     </r>
   </si>
   <si>
@@ -12051,13 +14420,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12119,6 +14488,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -12128,7 +14511,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12150,30 +14541,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12195,14 +14563,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12213,6 +14582,29 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12232,34 +14624,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -12284,7 +14667,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12296,7 +14709,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12308,7 +14739,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12326,43 +14799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12380,67 +14817,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12452,19 +14841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12493,6 +14876,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -12504,26 +14902,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12569,9 +14950,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12583,10 +14966,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12595,137 +14978,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12741,13 +15124,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -13093,10 +15473,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -13110,35 +15490,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="10">
         <v>1</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="10">
         <v>2</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="10">
         <v>3</v>
       </c>
-      <c r="G1" s="11">
+      <c r="G1" s="10">
         <v>5</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="10">
         <v>8</v>
       </c>
-      <c r="I1" s="11">
+      <c r="I1" s="10">
         <v>15</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -13149,37 +15529,37 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>44045</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <f t="shared" ref="D2:D10" si="0">C2+1</f>
         <v>44046</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <f t="shared" ref="E2:E10" si="1">D2+2</f>
         <v>44048</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>44052</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <f t="shared" ref="G2:G10" si="2">F2+5</f>
         <v>44057</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <f t="shared" ref="H2:H10" si="3">G2+8</f>
         <v>44065</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="13">
         <f t="shared" ref="I2:I10" si="4">H2+15</f>
         <v>44080</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <f t="shared" ref="J2:J10" si="5">I2+30</f>
         <v>44110</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <f t="shared" ref="K2:K10" si="6">J2+60</f>
         <v>44170</v>
       </c>
@@ -13191,37 +15571,37 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>44045</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <f t="shared" si="0"/>
         <v>44046</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>44052</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <f t="shared" si="3"/>
         <v>44065</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <f t="shared" si="4"/>
         <v>44080</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <f t="shared" si="5"/>
         <v>44110</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <f t="shared" si="6"/>
         <v>44170</v>
       </c>
@@ -13233,37 +15613,37 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>44045</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <f t="shared" si="0"/>
         <v>44046</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>44052</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <f t="shared" si="3"/>
         <v>44065</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <f t="shared" si="4"/>
         <v>44080</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <f t="shared" si="5"/>
         <v>44110</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <f t="shared" si="6"/>
         <v>44170</v>
       </c>
@@ -13275,37 +15655,37 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>44045</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <f t="shared" si="0"/>
         <v>44046</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>44052</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <f t="shared" si="3"/>
         <v>44065</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <f t="shared" si="4"/>
         <v>44080</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <f t="shared" si="5"/>
         <v>44110</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <f t="shared" si="6"/>
         <v>44170</v>
       </c>
@@ -13317,37 +15697,37 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>44045</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
         <v>44046</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>44052</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <f t="shared" si="3"/>
         <v>44065</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <f t="shared" si="4"/>
         <v>44080</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <f t="shared" si="5"/>
         <v>44110</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <f t="shared" si="6"/>
         <v>44170</v>
       </c>
@@ -13359,37 +15739,37 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>44045</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>44046</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>44052</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <f t="shared" si="3"/>
         <v>44065</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="13">
         <f t="shared" si="4"/>
         <v>44080</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <f t="shared" si="5"/>
         <v>44110</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <f t="shared" si="6"/>
         <v>44170</v>
       </c>
@@ -13401,37 +15781,37 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>44045</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>44046</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>44052</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <f t="shared" si="3"/>
         <v>44065</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <f t="shared" si="4"/>
         <v>44080</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <f t="shared" si="5"/>
         <v>44110</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <f t="shared" si="6"/>
         <v>44170</v>
       </c>
@@ -13443,37 +15823,37 @@
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>44045</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>44046</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <f t="shared" si="1"/>
         <v>44048</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>44052</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <f t="shared" si="3"/>
         <v>44065</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <f t="shared" si="4"/>
         <v>44080</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <f t="shared" si="5"/>
         <v>44110</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <f t="shared" si="6"/>
         <v>44170</v>
       </c>
@@ -13482,41 +15862,41 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>44049</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>44050</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" si="1"/>
         <v>44052</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <f>E10+3</f>
         <v>44055</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <f t="shared" si="2"/>
         <v>44060</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <f t="shared" si="3"/>
         <v>44068</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <f t="shared" si="4"/>
         <v>44083</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <f t="shared" si="5"/>
         <v>44113</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <f t="shared" si="6"/>
         <v>44173</v>
       </c>
@@ -13525,41 +15905,41 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>44049</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <f t="shared" ref="D11:D16" si="7">C11+1</f>
         <v>44050</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f t="shared" ref="E11:E16" si="8">D11+2</f>
         <v>44052</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <f t="shared" ref="F11:F16" si="9">E11+3</f>
         <v>44055</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <f t="shared" ref="G11:G16" si="10">F11+5</f>
         <v>44060</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <f t="shared" ref="H11:H16" si="11">G11+8</f>
         <v>44068</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <f t="shared" ref="I11:I16" si="12">H11+15</f>
         <v>44083</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <f t="shared" ref="J11:J16" si="13">I11+30</f>
         <v>44113</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <f t="shared" ref="K11:K16" si="14">J11+60</f>
         <v>44173</v>
       </c>
@@ -13568,40 +15948,40 @@
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>44050</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>44053</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <f t="shared" si="8"/>
         <v>44055</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <f t="shared" si="9"/>
         <v>44058</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <f t="shared" si="10"/>
         <v>44063</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <f t="shared" si="11"/>
         <v>44071</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <f t="shared" si="12"/>
         <v>44086</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <f t="shared" si="13"/>
         <v>44116</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <f t="shared" si="14"/>
         <v>44176</v>
       </c>
@@ -13613,151 +15993,345 @@
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>44053</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <f t="shared" si="7"/>
         <v>44054</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <f t="shared" si="8"/>
         <v>44056</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <f t="shared" si="9"/>
         <v>44059</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <f t="shared" si="10"/>
         <v>44064</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <f t="shared" si="11"/>
         <v>44072</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <f t="shared" si="12"/>
         <v>44087</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <f t="shared" si="13"/>
         <v>44117</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <f t="shared" si="14"/>
         <v>44177</v>
       </c>
     </row>
-    <row r="14" spans="3:11">
-      <c r="C14" s="14">
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="11">
         <v>44054</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <f t="shared" si="7"/>
         <v>44055</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <f t="shared" si="8"/>
         <v>44057</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <f t="shared" si="9"/>
         <v>44060</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <f t="shared" si="10"/>
         <v>44065</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <f t="shared" si="11"/>
         <v>44073</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <f t="shared" si="12"/>
         <v>44088</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <f t="shared" si="13"/>
         <v>44118</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <f t="shared" si="14"/>
         <v>44178</v>
       </c>
     </row>
-    <row r="15" spans="3:11">
-      <c r="C15" s="14">
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="13">
         <v>44055</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <f t="shared" si="7"/>
         <v>44056</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <f t="shared" si="8"/>
         <v>44058</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <f t="shared" si="9"/>
         <v>44061</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <f t="shared" si="10"/>
         <v>44066</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <f t="shared" si="11"/>
         <v>44074</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <f t="shared" si="12"/>
         <v>44089</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <f t="shared" si="13"/>
         <v>44119</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <f t="shared" si="14"/>
         <v>44179</v>
       </c>
     </row>
     <row r="16" spans="3:11">
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>44056</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <f t="shared" si="7"/>
         <v>44057</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <f t="shared" si="8"/>
         <v>44059</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <f t="shared" si="9"/>
         <v>44062</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <f t="shared" si="10"/>
         <v>44067</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <f t="shared" si="11"/>
         <v>44075</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <f t="shared" si="12"/>
         <v>44090</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <f t="shared" si="13"/>
         <v>44120</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <f t="shared" si="14"/>
         <v>44180</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="13">
+        <v>44057</v>
+      </c>
+      <c r="D17" s="13">
+        <f>C17+1</f>
+        <v>44058</v>
+      </c>
+      <c r="E17" s="13">
+        <f>D17+2</f>
+        <v>44060</v>
+      </c>
+      <c r="F17" s="13">
+        <f>E17+3</f>
+        <v>44063</v>
+      </c>
+      <c r="G17" s="13">
+        <f>F17+5</f>
+        <v>44068</v>
+      </c>
+      <c r="H17" s="13">
+        <f>G17+8</f>
+        <v>44076</v>
+      </c>
+      <c r="I17" s="13">
+        <f>H17+15</f>
+        <v>44091</v>
+      </c>
+      <c r="J17" s="13">
+        <f>I17+30</f>
+        <v>44121</v>
+      </c>
+      <c r="K17" s="13">
+        <f>J17+60</f>
+        <v>44181</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="13">
+        <v>44058</v>
+      </c>
+      <c r="D18" s="13">
+        <f>C18+1</f>
+        <v>44059</v>
+      </c>
+      <c r="E18" s="13">
+        <f>D18+2</f>
+        <v>44061</v>
+      </c>
+      <c r="F18" s="13">
+        <f>E18+3</f>
+        <v>44064</v>
+      </c>
+      <c r="G18" s="13">
+        <f>F18+5</f>
+        <v>44069</v>
+      </c>
+      <c r="H18" s="13">
+        <f>G18+8</f>
+        <v>44077</v>
+      </c>
+      <c r="I18" s="13">
+        <f>H18+15</f>
+        <v>44092</v>
+      </c>
+      <c r="J18" s="13">
+        <f>I18+30</f>
+        <v>44122</v>
+      </c>
+      <c r="K18" s="13">
+        <f>J18+60</f>
+        <v>44182</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" s="13">
+        <v>44059</v>
+      </c>
+      <c r="D19" s="13">
+        <f>C19+1</f>
+        <v>44060</v>
+      </c>
+      <c r="E19" s="13">
+        <f>D19+2</f>
+        <v>44062</v>
+      </c>
+      <c r="F19" s="13">
+        <f>E19+3</f>
+        <v>44065</v>
+      </c>
+      <c r="G19" s="13">
+        <f>F19+5</f>
+        <v>44070</v>
+      </c>
+      <c r="H19" s="13">
+        <f>G19+8</f>
+        <v>44078</v>
+      </c>
+      <c r="I19" s="13">
+        <f>H19+15</f>
+        <v>44093</v>
+      </c>
+      <c r="J19" s="13">
+        <f>I19+30</f>
+        <v>44123</v>
+      </c>
+      <c r="K19" s="13">
+        <f>J19+60</f>
+        <v>44183</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" s="13">
+        <v>44060</v>
+      </c>
+      <c r="D20" s="13">
+        <f>C20+1</f>
+        <v>44061</v>
+      </c>
+      <c r="E20" s="13">
+        <f>D20+2</f>
+        <v>44063</v>
+      </c>
+      <c r="F20" s="13">
+        <f>E20+3</f>
+        <v>44066</v>
+      </c>
+      <c r="G20" s="13">
+        <f>F20+5</f>
+        <v>44071</v>
+      </c>
+      <c r="H20" s="13">
+        <f>G20+8</f>
+        <v>44079</v>
+      </c>
+      <c r="I20" s="13">
+        <f>H20+15</f>
+        <v>44094</v>
+      </c>
+      <c r="J20" s="13">
+        <f>I20+30</f>
+        <v>44124</v>
+      </c>
+      <c r="K20" s="13">
+        <f>J20+60</f>
+        <v>44184</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21" s="13">
+        <v>44061</v>
+      </c>
+      <c r="D21" s="13">
+        <f>C21+1</f>
+        <v>44062</v>
+      </c>
+      <c r="E21" s="13">
+        <f>D21+2</f>
+        <v>44064</v>
+      </c>
+      <c r="F21" s="13">
+        <f>E21+3</f>
+        <v>44067</v>
+      </c>
+      <c r="G21" s="13">
+        <f>F21+5</f>
+        <v>44072</v>
+      </c>
+      <c r="H21" s="13">
+        <f>G21+8</f>
+        <v>44080</v>
+      </c>
+      <c r="I21" s="13">
+        <f>H21+15</f>
+        <v>44095</v>
+      </c>
+      <c r="J21" s="13">
+        <f>I21+30</f>
+        <v>44125</v>
+      </c>
+      <c r="K21" s="13">
+        <f>J21+60</f>
+        <v>44185</v>
       </c>
     </row>
   </sheetData>
@@ -13771,8 +16345,8 @@
   <sheetPr/>
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -13780,26 +16354,26 @@
     <col min="1" max="1" width="11.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="33.3333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="39.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="40.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="104" customHeight="1" spans="1:4">
@@ -13807,13 +16381,13 @@
         <v>1000</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>1100</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="114" customHeight="1" spans="1:4">
@@ -13821,13 +16395,13 @@
         <v>1001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>1101</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="302" customHeight="1" spans="1:4">
@@ -13835,13 +16409,13 @@
         <v>1002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>1102</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>38</v>
+      <c r="D5" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="115.2" spans="1:4">
@@ -13849,27 +16423,27 @@
         <v>1003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>1103</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>40</v>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="7" ht="187.2" spans="1:4">
+    <row r="7" ht="216" spans="1:4">
       <c r="A7">
         <v>1004</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>41</v>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C7">
         <v>1104</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>42</v>
+      <c r="D7" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="129.6" spans="1:4">
@@ -13877,13 +16451,13 @@
         <v>1005</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>1105</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>44</v>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="72" spans="1:4">
@@ -13891,13 +16465,13 @@
         <v>1006</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>1106</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>46</v>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="129.6" spans="1:4">
@@ -13905,13 +16479,13 @@
         <v>1007</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>1107</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>48</v>
+      <c r="D10" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" ht="230.4" spans="1:4">
@@ -13919,13 +16493,13 @@
         <v>1008</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>1108</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>50</v>
+      <c r="D11" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" ht="144" spans="1:4">
@@ -13933,27 +16507,27 @@
         <v>1009</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>1109</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>52</v>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="13" ht="72" spans="1:4">
+    <row r="13" ht="86.4" spans="1:4">
       <c r="A13">
         <v>1010</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>1110</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>54</v>
+      <c r="D13" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="149" customHeight="1" spans="1:4">
@@ -13961,27 +16535,27 @@
         <v>1011</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>1111</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>56</v>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" ht="114" customHeight="1" spans="1:4">
       <c r="A15">
         <v>1012</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>57</v>
+      <c r="B15" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C15">
         <v>1112</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>58</v>
+      <c r="D15" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" ht="129.6" spans="1:4">
@@ -13989,68 +16563,83 @@
         <v>1013</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>1113</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>60</v>
+      <c r="D16" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="17" ht="86.4" spans="1:3">
+    <row r="17" ht="259.2" spans="1:4">
       <c r="A17">
         <v>1014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <v>1114</v>
       </c>
+      <c r="D17" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="18" ht="115.2" spans="1:3">
+    <row r="18" ht="115.2" spans="1:4">
       <c r="A18">
         <v>1015</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C18">
         <v>1115</v>
       </c>
+      <c r="D18" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="19" ht="144" spans="1:3">
+    <row r="19" ht="144" spans="1:4">
       <c r="A19">
         <v>1016</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C19">
         <v>1116</v>
       </c>
+      <c r="D19" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="20" ht="72" spans="1:3">
+    <row r="20" ht="72" spans="1:4">
       <c r="A20">
         <v>1017</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C20">
         <v>1117</v>
       </c>
+      <c r="D20" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="21" ht="86.4" spans="1:3">
+    <row r="21" ht="288" spans="1:4">
       <c r="A21">
         <v>1018</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C21">
         <v>1118</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22" ht="57.6" spans="1:3">
@@ -14058,7 +16647,7 @@
         <v>1019</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C22">
         <v>1119</v>
@@ -14069,7 +16658,7 @@
         <v>1020</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C23">
         <v>1120</v>
@@ -14079,8 +16668,8 @@
       <c r="A24">
         <v>1021</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>68</v>
+      <c r="B24" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="C24">
         <v>1121</v>
@@ -14091,7 +16680,7 @@
         <v>1022</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C25">
         <v>1122</v>
@@ -14102,7 +16691,7 @@
         <v>1023</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C26">
         <v>1123</v>
@@ -14112,8 +16701,8 @@
       <c r="A27">
         <v>1024</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>71</v>
+      <c r="B27" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="C27">
         <v>1124</v>
@@ -14123,8 +16712,8 @@
       <c r="A28">
         <v>1025</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>72</v>
+      <c r="B28" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C28">
         <v>1125</v>
@@ -14134,8 +16723,8 @@
       <c r="A29">
         <v>1026</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>73</v>
+      <c r="B29" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="C29">
         <v>1126</v>
@@ -14145,8 +16734,8 @@
       <c r="A30">
         <v>1027</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>74</v>
+      <c r="B30" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C30">
         <v>1127</v>
@@ -14157,7 +16746,7 @@
         <v>1028</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C31">
         <v>1128</v>
@@ -14168,7 +16757,7 @@
         <v>1029</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C32">
         <v>1129</v>
@@ -14179,7 +16768,7 @@
         <v>1030</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C33">
         <v>1130</v>
@@ -14190,7 +16779,7 @@
         <v>1031</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C34">
         <v>1131</v>
@@ -14201,7 +16790,7 @@
         <v>1032</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C35">
         <v>1132</v>
@@ -14212,7 +16801,7 @@
         <v>1033</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C36">
         <v>1133</v>
@@ -14223,7 +16812,7 @@
         <v>1034</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C37">
         <v>1134</v>
@@ -14234,7 +16823,7 @@
         <v>1035</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C38">
         <v>1135</v>
@@ -14245,7 +16834,7 @@
         <v>1036</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C39">
         <v>1136</v>
@@ -14256,7 +16845,7 @@
         <v>1037</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C40">
         <v>1137</v>
@@ -14267,7 +16856,7 @@
         <v>1038</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C41">
         <v>1138</v>
@@ -14278,7 +16867,7 @@
         <v>1039</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C42">
         <v>1139</v>
@@ -14289,7 +16878,7 @@
         <v>1040</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C43">
         <v>1140</v>
@@ -14300,7 +16889,7 @@
         <v>1041</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C44">
         <v>1141</v>
@@ -14311,7 +16900,7 @@
         <v>1042</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C45">
         <v>1142</v>
